--- a/src/main/resources/data_output/SequentialExecutionTimes.xlsx
+++ b/src/main/resources/data_output/SequentialExecutionTimes.xlsx
@@ -7723,7 +7723,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E18" sqref="E18"/>
@@ -8046,6 +8046,12 @@
       </c>
     </row>
     <row r="23">
+      <c r="A23" t="n">
+        <v>0.0312288</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0.0293721</v>
+      </c>
       <c r="C23" t="n">
         <v>0.0033707</v>
       </c>
@@ -8054,6 +8060,12 @@
       </c>
     </row>
     <row r="24">
+      <c r="A24" t="n">
+        <v>0.0213415</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0.021437</v>
+      </c>
       <c r="C24" t="n">
         <v>0.0040288</v>
       </c>
@@ -8075,6 +8087,30 @@
       </c>
       <c r="D26" t="n">
         <v>0.0020525</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="C27" t="n">
+        <v>0.0072541</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.0037323</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="C28" t="n">
+        <v>0.0201335</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.0077251</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="C29" t="n">
+        <v>0.0092403</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.0047571</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/data_output/SequentialExecutionTimes.xlsx
+++ b/src/main/resources/data_output/SequentialExecutionTimes.xlsx
@@ -7723,7 +7723,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E18" sqref="E18"/>
@@ -8113,6 +8113,22 @@
         <v>0.0047571</v>
       </c>
     </row>
+    <row r="30">
+      <c r="C30" t="n">
+        <v>0.008211</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.0047196</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="C31" t="n">
+        <v>0.0026307</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.0022981</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/src/main/resources/data_output/SequentialExecutionTimes.xlsx
+++ b/src/main/resources/data_output/SequentialExecutionTimes.xlsx
@@ -8074,6 +8074,12 @@
       </c>
     </row>
     <row r="25">
+      <c r="A25" t="n">
+        <v>0.032607</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0.0247385</v>
+      </c>
       <c r="C25" t="n">
         <v>0.0127245</v>
       </c>
@@ -8082,6 +8088,12 @@
       </c>
     </row>
     <row r="26">
+      <c r="A26" t="n">
+        <v>0.0237495</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0.0236449</v>
+      </c>
       <c r="C26" t="n">
         <v>0.0043228</v>
       </c>

--- a/src/main/resources/data_output/SequentialExecutionTimes.xlsx
+++ b/src/main/resources/data_output/SequentialExecutionTimes.xlsx
@@ -396,7 +396,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
@@ -467,11 +467,49 @@
       </c>
     </row>
     <row r="3">
+      <c r="A3" t="n">
+        <v>0.030609</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.0232365</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.0021538</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.0019907</v>
+      </c>
+      <c r="E3" t="n">
+        <v>7.4E-4</v>
+      </c>
+      <c r="F3" t="n">
+        <v>7.441E-4</v>
+      </c>
       <c r="G3" t="n">
         <v>1.589E-4</v>
       </c>
       <c r="H3" t="n">
         <v>2.95E-5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="C4" t="n">
+        <v>0.0092054</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.0039806</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1.008E-4</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1.045E-4</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1.921E-4</v>
+      </c>
+      <c r="H4" t="n">
+        <v>2.857E-4</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/data_output/SequentialExecutionTimes.xlsx
+++ b/src/main/resources/data_output/SequentialExecutionTimes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anul1 IS1.1 Semestrul2\MEvPerf\SearchAlgorithms\src\main\resources\data_output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F86D38C-7856-4B60-94E0-CC8A1290996A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83C9E7ED-51F7-440C-ADD2-891E64F4EBC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-45" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -51,9 +51,17 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -80,8 +88,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -97,6 +111,3839 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Execution Times'!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Graph BFS Execution Time 10000 (s)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Execution Times'!$A$2:$A$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2.74994E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.0609000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.5272400000000002E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D75C-493B-B42C-FC3A4863BBFA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Execution Times'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Graph DFS Execution Time 10000 (s)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Execution Times'!$B$2:$B$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2.4012100000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.32365E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.6511300000000002E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D75C-493B-B42C-FC3A4863BBFA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="2067506319"/>
+        <c:axId val="2067495503"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2067506319"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2067495503"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2067495503"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2067506319"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Execution Times'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Graph BFS Execution Time 1000 (s)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Execution Times'!$C$2:$C$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>4.8685000000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.1538E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.2054000000000007E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9CEF-47F3-8E45-5DAB361871D4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Execution Times'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Graph DFS Execution Time 1000 (s)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Execution Times'!$D$2:$D$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>3.4110009999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.9907000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.9805999999999999E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9CEF-47F3-8E45-5DAB361871D4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="2058634623"/>
+        <c:axId val="2058635039"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2058634623"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2058635039"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2058635039"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2058634623"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Execution Times'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tree BFS Execution Time 10000 (s)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Execution Times'!$E$2:$E$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>7.8680000000000004E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.3999999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.008E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7451-4A1F-B3FD-78E0ED928805}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Execution Times'!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tree DFS Execution Time 10000 (s)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Execution Times'!$F$2:$F$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>7.7220000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.4410000000000003E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0450000000000001E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7451-4A1F-B3FD-78E0ED928805}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="466642575"/>
+        <c:axId val="466642991"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="466642575"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="466642991"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="466642991"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="466642575"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Execution Times'!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tree BFS Execution Time 1000 (s)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Execution Times'!$G$2:$G$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>6.1160000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5890000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.9210000000000001E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CA07-4B6B-9FDA-86903C0843CC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Execution Times'!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tree DFS Execution Time 1000 (s)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Execution Times'!$H$2:$H$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>5.6780000000000003E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.9499999999999999E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.8570000000000001E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-CA07-4B6B-9FDA-86903C0843CC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="479623663"/>
+        <c:axId val="479631151"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="479623663"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="479631151"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="479631151"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="479623663"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>88582</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>302895</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>113347</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E52B71B-A852-9ACB-0C5B-43B921EA0516}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>405765</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>115252</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>742950</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>140017</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C88E25C-01C5-DD29-4607-630A1DD100E7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>923925</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>65722</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>360045</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>92392</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78032840-295C-70D7-0E88-F685D1A84401}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>391477</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>94297</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>94297</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>120967</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40044DBC-B8C0-7E67-AB08-83D33EC8DD06}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -396,47 +4243,47 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="31.109375"/>
-    <col min="2" max="2" customWidth="true" width="31.0"/>
-    <col min="3" max="3" customWidth="true" width="30.33203125"/>
-    <col min="4" max="4" customWidth="true" width="30.0"/>
-    <col min="5" max="5" customWidth="true" width="30.33203125"/>
-    <col min="6" max="6" customWidth="true" width="29.77734375"/>
-    <col min="7" max="7" customWidth="true" width="28.44140625"/>
-    <col min="8" max="8" customWidth="true" width="28.77734375"/>
+    <col min="1" max="1" customWidth="true" width="20.5546875"/>
+    <col min="2" max="2" customWidth="true" width="20.6640625"/>
+    <col min="3" max="3" customWidth="true" width="21.33203125"/>
+    <col min="4" max="4" customWidth="true" width="20.6640625"/>
+    <col min="5" max="5" customWidth="true" width="20.77734375"/>
+    <col min="6" max="6" customWidth="true" width="20.21875"/>
+    <col min="7" max="7" customWidth="true" width="20.109375"/>
+    <col min="8" max="8" customWidth="true" width="19.109375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:8" s="2" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -447,17 +4294,17 @@
       <c r="B2">
         <v>2.4012100000000001E-2</v>
       </c>
-      <c r="C2" t="n">
-        <v>0.0048685</v>
+      <c r="C2">
+        <v>4.8685000000000004E-3</v>
       </c>
-      <c r="D2" t="n">
-        <v>0.003411001</v>
+      <c r="D2">
+        <v>3.4110009999999999E-3</v>
       </c>
-      <c r="E2" t="n">
-        <v>7.868E-4</v>
+      <c r="E2">
+        <v>7.8680000000000004E-4</v>
       </c>
-      <c r="F2" t="n">
-        <v>7.722E-4</v>
+      <c r="F2">
+        <v>7.7220000000000001E-4</v>
       </c>
       <c r="G2">
         <v>6.1160000000000001E-4</v>
@@ -466,53 +4313,69 @@
         <v>5.6780000000000003E-4</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>0.030609</v>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>3.0609000000000001E-2</v>
       </c>
-      <c r="B3" t="n">
-        <v>0.0232365</v>
+      <c r="B3">
+        <v>2.32365E-2</v>
       </c>
-      <c r="C3" t="n">
-        <v>0.0021538</v>
+      <c r="C3">
+        <v>2.1538E-3</v>
       </c>
-      <c r="D3" t="n">
-        <v>0.0019907</v>
+      <c r="D3">
+        <v>1.9907000000000002E-3</v>
       </c>
-      <c r="E3" t="n">
-        <v>7.4E-4</v>
+      <c r="E3">
+        <v>7.3999999999999999E-4</v>
       </c>
-      <c r="F3" t="n">
-        <v>7.441E-4</v>
+      <c r="F3">
+        <v>7.4410000000000003E-4</v>
       </c>
-      <c r="G3" t="n">
-        <v>1.589E-4</v>
+      <c r="G3">
+        <v>1.5890000000000001E-4</v>
       </c>
-      <c r="H3" t="n">
-        <v>2.95E-5</v>
+      <c r="H3">
+        <v>2.9499999999999999E-5</v>
       </c>
     </row>
-    <row r="4">
-      <c r="C4" t="n">
-        <v>0.0092054</v>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3.5272400000000002E-2</v>
       </c>
-      <c r="D4" t="n">
-        <v>0.0039806</v>
+      <c r="B4">
+        <v>2.6511300000000002E-2</v>
       </c>
-      <c r="E4" t="n">
+      <c r="C4">
+        <v>9.2054000000000007E-3</v>
+      </c>
+      <c r="D4">
+        <v>3.9805999999999999E-3</v>
+      </c>
+      <c r="E4">
         <v>1.008E-4</v>
       </c>
-      <c r="F4" t="n">
-        <v>1.045E-4</v>
+      <c r="F4">
+        <v>1.0450000000000001E-4</v>
       </c>
-      <c r="G4" t="n">
-        <v>1.921E-4</v>
+      <c r="G4">
+        <v>1.9210000000000001E-4</v>
       </c>
-      <c r="H4" t="n">
-        <v>2.857E-4</v>
+      <c r="H4">
+        <v>2.8570000000000001E-4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="C5" t="n">
+        <v>0.0110049</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.0042648</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/src/main/resources/data_output/SequentialExecutionTimes.xlsx
+++ b/src/main/resources/data_output/SequentialExecutionTimes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anul1 IS1.1 Semestrul2\MEvPerf\SearchAlgorithms\src\main\resources\data_output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83C9E7ED-51F7-440C-ADD2-891E64F4EBC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{210FD9E6-78C0-480A-9E9D-F3C38A6886E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-45" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -68,15 +68,39 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -84,18 +108,47 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -128,6 +181,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Time Execution For Graph 10000</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -203,10 +281,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Execution Times'!$A$2:$A$4</c:f>
+              <c:f>'Execution Times'!$A$2:$A$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>2.74994E-2</c:v>
                 </c:pt>
@@ -215,6 +293,12 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>3.5272400000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.7387600000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.91285E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -266,10 +350,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Execution Times'!$B$2:$B$4</c:f>
+              <c:f>'Execution Times'!$B$2:$B$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>2.4012100000000001E-2</c:v>
                 </c:pt>
@@ -278,6 +362,12 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>2.6511300000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.2605699999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.9986400000000001E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -506,6 +596,36 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Time Execution For Graph 1000</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1400">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -581,10 +701,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Execution Times'!$C$2:$C$4</c:f>
+              <c:f>'Execution Times'!$C$2:$C$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>4.8685000000000004E-3</c:v>
                 </c:pt>
@@ -593,6 +713,12 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>9.2054000000000007E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.10049E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.07534E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -644,10 +770,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Execution Times'!$D$2:$D$4</c:f>
+              <c:f>'Execution Times'!$D$2:$D$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>3.4110009999999999E-3</c:v>
                 </c:pt>
@@ -656,6 +782,12 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>3.9805999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.2648E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0403000000000002E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -884,6 +1016,36 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Time Execution For Tree 10000</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1400">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -959,10 +1121,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Execution Times'!$E$2:$E$4</c:f>
+              <c:f>'Execution Times'!$E$2:$E$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>7.8680000000000004E-4</c:v>
                 </c:pt>
@@ -971,6 +1133,12 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1.008E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.4400000000000002E-5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.47E-5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1022,10 +1190,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Execution Times'!$F$2:$F$4</c:f>
+              <c:f>'Execution Times'!$F$2:$F$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>7.7220000000000001E-4</c:v>
                 </c:pt>
@@ -1034,6 +1202,12 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1.0450000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.5800000000000003E-5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.8100000000000001E-5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1262,6 +1436,36 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Time Execution For Tree 1000</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1400">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1337,10 +1541,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Execution Times'!$G$2:$G$4</c:f>
+              <c:f>'Execution Times'!$G$2:$G$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>6.1160000000000001E-4</c:v>
                 </c:pt>
@@ -1349,6 +1553,12 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1.9210000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.616E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.7799999999999995E-5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1400,10 +1610,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Execution Times'!$H$2:$H$4</c:f>
+              <c:f>'Execution Times'!$H$2:$H$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>5.6780000000000003E-4</c:v>
                 </c:pt>
@@ -1412,6 +1622,12 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>2.8570000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.9200000000000002E-5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.3600000000000001E-5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3873,16 +4089,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>923925</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>65722</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>40565</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>153464</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>360045</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>92392</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>285414</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>6555</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3909,16 +4125,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>391477</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>94297</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>382176</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>109312</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>94297</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>120967</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>680813</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>134077</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4243,10 +4459,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:H1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4261,117 +4477,281 @@
     <col min="8" max="8" customWidth="true" width="19.109375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="2" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2">
+      <c r="A2" s="6">
         <v>2.74994E-2</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="6">
         <v>2.4012100000000001E-2</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="7">
         <v>4.8685000000000004E-3</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="7">
         <v>3.4110009999999999E-3</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="8">
         <v>7.8680000000000004E-4</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="8">
         <v>7.7220000000000001E-4</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="9">
         <v>6.1160000000000001E-4</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="9">
         <v>5.6780000000000003E-4</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3">
+      <c r="A3" s="6">
         <v>3.0609000000000001E-2</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="6">
         <v>2.32365E-2</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="7">
         <v>2.1538E-3</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="7">
         <v>1.9907000000000002E-3</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="8">
         <v>7.3999999999999999E-4</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="8">
         <v>7.4410000000000003E-4</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="9">
         <v>1.5890000000000001E-4</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="9">
         <v>2.9499999999999999E-5</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4">
+      <c r="A4" s="6">
         <v>3.5272400000000002E-2</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="6">
         <v>2.6511300000000002E-2</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="7">
         <v>9.2054000000000007E-3</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="7">
         <v>3.9805999999999999E-3</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="8">
         <v>1.008E-4</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="8">
         <v>1.0450000000000001E-4</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="9">
         <v>1.9210000000000001E-4</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="9">
         <v>2.8570000000000001E-4</v>
       </c>
     </row>
-    <row r="5">
-      <c r="C5" t="n">
-        <v>0.0110049</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.0042648</v>
-      </c>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="6">
+        <v>2.7387600000000002E-2</v>
+      </c>
+      <c r="B5" s="6">
+        <v>2.2605699999999999E-2</v>
+      </c>
+      <c r="C5" s="7">
+        <v>1.10049E-2</v>
+      </c>
+      <c r="D5" s="7">
+        <v>4.2648E-3</v>
+      </c>
+      <c r="E5" s="8">
+        <v>4.4400000000000002E-5</v>
+      </c>
+      <c r="F5" s="8">
+        <v>3.5800000000000003E-5</v>
+      </c>
+      <c r="G5" s="9">
+        <v>1.616E-4</v>
+      </c>
+      <c r="H5" s="9">
+        <v>2.9200000000000002E-5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="6">
+        <v>1.91285E-2</v>
+      </c>
+      <c r="B6" s="6">
+        <v>1.9986400000000001E-2</v>
+      </c>
+      <c r="C6" s="7">
+        <v>1.07534E-2</v>
+      </c>
+      <c r="D6" s="7">
+        <v>5.0403000000000002E-3</v>
+      </c>
+      <c r="E6" s="8">
+        <v>7.47E-5</v>
+      </c>
+      <c r="F6" s="8">
+        <v>7.8100000000000001E-5</v>
+      </c>
+      <c r="G6" s="9">
+        <v>6.7799999999999995E-5</v>
+      </c>
+      <c r="H6" s="9">
+        <v>2.3600000000000001E-5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="10"/>
+      <c r="B7" s="10"/>
+      <c r="C7">
+        <v>8.4519999999999994E-3</v>
+      </c>
+      <c r="D7">
+        <v>3.9798000000000004E-3</v>
+      </c>
+      <c r="E7">
+        <v>1.604E-4</v>
+      </c>
+      <c r="F7">
+        <v>1.01E-4</v>
+      </c>
+      <c r="G7" s="9">
+        <v>8.6600000000000004E-5</v>
+      </c>
+      <c r="H7" s="9">
+        <v>7.6199999999999995E-5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="10"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="9">
+        <v>1.27E-4</v>
+      </c>
+      <c r="H8" s="9">
+        <v>9.31E-5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="10"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="9">
+        <v>3.2100000000000001E-5</v>
+      </c>
+      <c r="H9" s="9">
+        <v>2.3499999999999999E-5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="10"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" t="n">
+        <v>7.09E-4</v>
+      </c>
+      <c r="H10" t="n">
+        <v>5.68E-4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="10"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="10"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="10"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="10"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="10"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="10"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="10"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/data_output/SequentialExecutionTimes.xlsx
+++ b/src/main/resources/data_output/SequentialExecutionTimes.xlsx
@@ -547,16 +547,24 @@
       <c r="B2" t="n">
         <v>0.0377004</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
+      <c r="C2" t="n">
+        <v>0.012308799</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.0041131</v>
+      </c>
       <c r="E2" s="7">
         <v>0.12515979999999999</v>
       </c>
       <c r="F2" s="7">
         <v>9.9140199999999998E-2</v>
       </c>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
+      <c r="G2" t="n">
+        <v>3.083E-4</v>
+      </c>
+      <c r="H2" t="n">
+        <v>3.954E-4</v>
+      </c>
       <c r="I2" t="n">
         <v>4.29E-5</v>
       </c>
@@ -571,16 +579,36 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
+      <c r="A3" t="n">
+        <v>0.0263105</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.0207453</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.0051289</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.0060277</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.131474</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.0994753</v>
+      </c>
+      <c r="G3" t="n">
+        <v>4.857E-4</v>
+      </c>
+      <c r="H3" t="n">
+        <v>6.566E-4</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1.846E-4</v>
+      </c>
+      <c r="J3" t="n">
+        <v>4.467E-4</v>
+      </c>
       <c r="K3" t="n">
         <v>6.263E-4</v>
       </c>
@@ -589,16 +617,32 @@
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
+      <c r="A4" t="n">
+        <v>0.0435865</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.0206726</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.0073527</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.0019882</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.0953628</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.097741501</v>
+      </c>
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
+      <c r="I4" t="n">
+        <v>5.318E-4</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1.778E-4</v>
+      </c>
       <c r="K4" t="n">
         <v>6.304E-4</v>
       </c>
@@ -607,26 +651,58 @@
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
+      <c r="A5" t="n">
+        <v>0.0260132</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.0249152</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.0045501</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.0019824</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.1434911</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.0970755</v>
+      </c>
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
+      <c r="I5" t="n">
+        <v>3.046E-4</v>
+      </c>
+      <c r="J5" t="n">
+        <v>3.493E-4</v>
+      </c>
+      <c r="K5" t="n">
+        <v>2.488E-4</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1.388E-4</v>
+      </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
+      <c r="A6" t="n">
+        <v>0.0223178</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.0432158</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.0066547</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.001899</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.1159043</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.1134566</v>
+      </c>
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
       <c r="I6" s="11"/>
@@ -637,10 +713,18 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
+      <c r="C7" t="n">
+        <v>0.0060368</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.0057689</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.1125136</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.1190275</v>
+      </c>
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
       <c r="I7" s="11"/>
@@ -651,8 +735,12 @@
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
+      <c r="C8" t="n">
+        <v>0.0074249</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.0022617</v>
+      </c>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
       <c r="G8" s="9"/>
@@ -665,7 +753,9 @@
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
-      <c r="C9" s="5"/>
+      <c r="C9" t="n">
+        <v>0.0046888</v>
+      </c>
       <c r="D9" s="5"/>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
@@ -679,8 +769,12 @@
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
+      <c r="C10" t="n">
+        <v>0.0129891</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.0029162</v>
+      </c>
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
       <c r="G10" s="9"/>
@@ -693,8 +787,12 @@
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
+      <c r="C11" t="n">
+        <v>0.0051052</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.0017404</v>
+      </c>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
       <c r="G11" s="9"/>

--- a/src/main/resources/data_output/SequentialExecutionTimes.xlsx
+++ b/src/main/resources/data_output/SequentialExecutionTimes.xlsx
@@ -635,8 +635,12 @@
       <c r="F4" t="n">
         <v>0.097741501</v>
       </c>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
+      <c r="G4" t="n">
+        <v>0.0034661</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.0011682</v>
+      </c>
       <c r="I4" t="n">
         <v>5.318E-4</v>
       </c>
@@ -669,8 +673,12 @@
       <c r="F5" t="n">
         <v>0.0970755</v>
       </c>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
+      <c r="G5" t="n">
+        <v>4.117E-4</v>
+      </c>
+      <c r="H5" t="n">
+        <v>3.941E-4</v>
+      </c>
       <c r="I5" t="n">
         <v>3.046E-4</v>
       </c>
@@ -703,16 +711,32 @@
       <c r="F6" t="n">
         <v>0.1134566</v>
       </c>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
+      <c r="G6" t="n">
+        <v>0.0022583</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.0010742</v>
+      </c>
+      <c r="I6" t="n">
+        <v>3.426E-4</v>
+      </c>
+      <c r="J6" t="n">
+        <v>5.336E-4</v>
+      </c>
+      <c r="K6" t="n">
+        <v>2.447E-4</v>
+      </c>
+      <c r="L6" t="n">
+        <v>2.875E-4</v>
+      </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
+      <c r="A7" t="n">
+        <v>0.132765</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.1192099</v>
+      </c>
       <c r="C7" t="n">
         <v>0.0060368</v>
       </c>
@@ -725,16 +749,32 @@
       <c r="F7" t="n">
         <v>0.1190275</v>
       </c>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
+      <c r="G7" t="n">
+        <v>0.144805</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.1103763</v>
+      </c>
+      <c r="I7" t="n">
+        <v>3.761E-4</v>
+      </c>
+      <c r="J7" t="n">
+        <v>4.218E-4</v>
+      </c>
+      <c r="K7" t="n">
+        <v>2.232E-4</v>
+      </c>
+      <c r="L7" t="n">
+        <v>2.546E-4</v>
+      </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
+      <c r="A8" t="n">
+        <v>0.1001087</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.1036129</v>
+      </c>
       <c r="C8" t="n">
         <v>0.0074249</v>
       </c>
@@ -745,14 +785,26 @@
       <c r="F8" s="7"/>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="13"/>
+      <c r="I8" t="n">
+        <v>8.538E-4</v>
+      </c>
+      <c r="J8" t="n">
+        <v>2.746E-4</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.0010883</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.0012902</v>
+      </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
+      <c r="A9" t="n">
+        <v>0.1390678</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.1050595</v>
+      </c>
       <c r="C9" t="n">
         <v>0.0046888</v>
       </c>
@@ -761,10 +813,18 @@
       <c r="F9" s="7"/>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
+      <c r="I9" t="n">
+        <v>3.214E-4</v>
+      </c>
+      <c r="J9" t="n">
+        <v>2.898E-4</v>
+      </c>
+      <c r="K9" t="n">
+        <v>9.128E-4</v>
+      </c>
+      <c r="L9" t="n">
+        <v>3.871E-4</v>
+      </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="3"/>
@@ -779,10 +839,18 @@
       <c r="F10" s="7"/>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
+      <c r="I10" t="n">
+        <v>4.643E-4</v>
+      </c>
+      <c r="J10" t="n">
+        <v>4.006E-4</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.0014295</v>
+      </c>
+      <c r="L10" t="n">
+        <v>2.102E-4</v>
+      </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="3"/>
@@ -797,136 +865,252 @@
       <c r="F11" s="7"/>
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
+      <c r="I11" t="n">
+        <v>4.197E-4</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1.944E-4</v>
+      </c>
+      <c r="K11" t="n">
+        <v>6.798E-4</v>
+      </c>
+      <c r="L11" t="n">
+        <v>6.983E-4</v>
+      </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
+      <c r="C12" t="n">
+        <v>0.0164368</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.0076648</v>
+      </c>
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="13"/>
+      <c r="I12" t="n">
+        <v>1.443E-4</v>
+      </c>
+      <c r="J12" t="n">
+        <v>2.357E-4</v>
+      </c>
+      <c r="K12" t="n">
+        <v>2.233E-4</v>
+      </c>
+      <c r="L12" t="n">
+        <v>3.7E-4</v>
+      </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
+      <c r="C13" t="n">
+        <v>0.0296543</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.0093663</v>
+      </c>
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13"/>
+      <c r="I13" t="n">
+        <v>3.05E-4</v>
+      </c>
+      <c r="J13" t="n">
+        <v>3.224E-4</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.0011706</v>
+      </c>
+      <c r="L13" t="n">
+        <v>2.252E-4</v>
+      </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
+      <c r="C14" t="n">
+        <v>0.0151195</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.0114783</v>
+      </c>
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
       <c r="G14" s="9"/>
       <c r="H14" s="9"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="13"/>
-      <c r="L14" s="13"/>
+      <c r="I14" t="n">
+        <v>0.001453</v>
+      </c>
+      <c r="J14" t="n">
+        <v>6.399E-4</v>
+      </c>
+      <c r="K14" t="n">
+        <v>6.77E-4</v>
+      </c>
+      <c r="L14" t="n">
+        <v>6.113E-4</v>
+      </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
+      <c r="C15" t="n">
+        <v>0.033507</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.011705</v>
+      </c>
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
       <c r="G15" s="9"/>
       <c r="H15" s="9"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="13"/>
+      <c r="I15" t="n">
+        <v>4.836E-4</v>
+      </c>
+      <c r="J15" t="n">
+        <v>2.755E-4</v>
+      </c>
+      <c r="K15" t="n">
+        <v>3.706E-4</v>
+      </c>
+      <c r="L15" t="n">
+        <v>1.96E-4</v>
+      </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
+      <c r="C16" t="n">
+        <v>0.0142654</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.0169763</v>
+      </c>
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
       <c r="G16" s="9"/>
       <c r="H16" s="9"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="11"/>
-      <c r="K16" s="13"/>
-      <c r="L16" s="13"/>
+      <c r="I16" t="n">
+        <v>9.917E-4</v>
+      </c>
+      <c r="J16" t="n">
+        <v>4.806E-4</v>
+      </c>
+      <c r="K16" t="n">
+        <v>7.102E-4</v>
+      </c>
+      <c r="L16" t="n">
+        <v>6.943E-4</v>
+      </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
+      <c r="C17" t="n">
+        <v>0.0137067</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.0120972</v>
+      </c>
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
       <c r="G17" s="9"/>
       <c r="H17" s="9"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="13"/>
+      <c r="I17" t="n">
+        <v>5.697E-4</v>
+      </c>
+      <c r="J17" t="n">
+        <v>9.549E-4</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.0057206</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0.0041453</v>
+      </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
+      <c r="C18" t="n">
+        <v>0.0421381</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.0184092</v>
+      </c>
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
       <c r="G18" s="9"/>
       <c r="H18" s="9"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="13"/>
-      <c r="L18" s="13"/>
+      <c r="I18" t="n">
+        <v>0.0014502</v>
+      </c>
+      <c r="J18" t="n">
+        <v>3.899E-4</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.005225</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0.0039516</v>
+      </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
+      <c r="C19" t="n">
+        <v>0.0188969</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.0143518</v>
+      </c>
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
       <c r="G19" s="9"/>
       <c r="H19" s="9"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="13"/>
-      <c r="L19" s="13"/>
+      <c r="I19" t="n">
+        <v>0.0010375</v>
+      </c>
+      <c r="J19" t="n">
+        <v>4.494E-4</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.5751007</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0.6049607</v>
+      </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
+      <c r="C20" t="n">
+        <v>0.0429745</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.0255525</v>
+      </c>
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
       <c r="G20" s="9"/>
       <c r="H20" s="9"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="13"/>
-      <c r="L20" s="13"/>
+      <c r="I20" t="n">
+        <v>0.001406</v>
+      </c>
+      <c r="J20" t="n">
+        <v>6.55E-4</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.5802938</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0.5857981</v>
+      </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="3"/>
@@ -937,8 +1121,12 @@
       <c r="F21" s="7"/>
       <c r="G21" s="9"/>
       <c r="H21" s="9"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="11"/>
+      <c r="I21" t="n">
+        <v>0.0012484</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.0011903</v>
+      </c>
       <c r="K21" s="13"/>
       <c r="L21" s="13"/>
     </row>
@@ -951,8 +1139,12 @@
       <c r="F22" s="7"/>
       <c r="G22" s="9"/>
       <c r="H22" s="9"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="11"/>
+      <c r="I22" t="n">
+        <v>0.0013273</v>
+      </c>
+      <c r="J22" t="n">
+        <v>9.274E-4</v>
+      </c>
       <c r="K22" s="13"/>
       <c r="L22" s="13"/>
     </row>
@@ -965,8 +1157,12 @@
       <c r="F23" s="7"/>
       <c r="G23" s="9"/>
       <c r="H23" s="9"/>
-      <c r="I23" s="11"/>
-      <c r="J23" s="11"/>
+      <c r="I23" t="n">
+        <v>0.0431379</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0.0243468</v>
+      </c>
       <c r="K23" s="13"/>
       <c r="L23" s="13"/>
     </row>

--- a/src/main/resources/data_output/SequentialExecutionTimes.xlsx
+++ b/src/main/resources/data_output/SequentialExecutionTimes.xlsx
@@ -480,7 +480,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:L27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="E37" sqref="E37"/>
@@ -783,8 +783,12 @@
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
+      <c r="G8" t="n">
+        <v>0.1554906</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.1367478</v>
+      </c>
       <c r="I8" t="n">
         <v>8.538E-4</v>
       </c>
@@ -811,8 +815,12 @@
       <c r="D9" s="5"/>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
+      <c r="G9" t="n">
+        <v>0.1194432</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.1033507</v>
+      </c>
       <c r="I9" t="n">
         <v>3.214E-4</v>
       </c>
@@ -827,8 +835,12 @@
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
+      <c r="A10" t="n">
+        <v>0.1261244</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.1748459</v>
+      </c>
       <c r="C10" t="n">
         <v>0.0129891</v>
       </c>
@@ -837,8 +849,12 @@
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
+      <c r="G10" t="n">
+        <v>0.1058008</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.1046368</v>
+      </c>
       <c r="I10" t="n">
         <v>4.643E-4</v>
       </c>
@@ -863,8 +879,12 @@
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
+      <c r="G11" t="n">
+        <v>0.1483519</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.1067876</v>
+      </c>
       <c r="I11" t="n">
         <v>4.197E-4</v>
       </c>
@@ -889,8 +909,12 @@
       </c>
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
+      <c r="G12" t="n">
+        <v>0.1156435</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.1086869</v>
+      </c>
       <c r="I12" t="n">
         <v>1.443E-4</v>
       </c>
@@ -915,8 +939,12 @@
       </c>
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
+      <c r="G13" t="n">
+        <v>0.1191615</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.1565017</v>
+      </c>
       <c r="I13" t="n">
         <v>3.05E-4</v>
       </c>
@@ -941,8 +969,12 @@
       </c>
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
+      <c r="G14" t="n">
+        <v>0.1511399</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.1551603</v>
+      </c>
       <c r="I14" t="n">
         <v>0.001453</v>
       </c>
@@ -967,8 +999,12 @@
       </c>
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
+      <c r="G15" t="n">
+        <v>0.1182255</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.1031734</v>
+      </c>
       <c r="I15" t="n">
         <v>4.836E-4</v>
       </c>
@@ -993,8 +1029,12 @@
       </c>
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
+      <c r="G16" t="n">
+        <v>0.1480094</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.1204223</v>
+      </c>
       <c r="I16" t="n">
         <v>9.917E-4</v>
       </c>
@@ -1019,8 +1059,12 @@
       </c>
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
+      <c r="G17" t="n">
+        <v>0.121699</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.1217069</v>
+      </c>
       <c r="I17" t="n">
         <v>5.697E-4</v>
       </c>
@@ -1045,8 +1089,12 @@
       </c>
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
+      <c r="G18" t="n">
+        <v>0.1119068</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.0974884</v>
+      </c>
       <c r="I18" t="n">
         <v>0.0014502</v>
       </c>
@@ -1115,8 +1163,12 @@
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
+      <c r="C21" t="n">
+        <v>0.0100352</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.014062</v>
+      </c>
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
       <c r="G21" s="9"/>
@@ -1127,14 +1179,22 @@
       <c r="J21" t="n">
         <v>0.0011903</v>
       </c>
-      <c r="K21" s="13"/>
-      <c r="L21" s="13"/>
+      <c r="K21" t="n">
+        <v>0.5773175</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0.5721709</v>
+      </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
+      <c r="C22" t="n">
+        <v>0.0177504</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.0651099</v>
+      </c>
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
       <c r="G22" s="9"/>
@@ -1145,14 +1205,22 @@
       <c r="J22" t="n">
         <v>9.274E-4</v>
       </c>
-      <c r="K22" s="13"/>
-      <c r="L22" s="13"/>
+      <c r="K22" t="n">
+        <v>0.6053008</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0.5751602</v>
+      </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
+      <c r="C23" t="n">
+        <v>0.0138604</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.0138828</v>
+      </c>
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
       <c r="G23" s="9"/>
@@ -1163,8 +1231,12 @@
       <c r="J23" t="n">
         <v>0.0243468</v>
       </c>
-      <c r="K23" s="13"/>
-      <c r="L23" s="13"/>
+      <c r="K23" t="n">
+        <v>0.6084641</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0.6242122</v>
+      </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="3"/>
@@ -1175,10 +1247,18 @@
       <c r="F24" s="7"/>
       <c r="G24" s="9"/>
       <c r="H24" s="9"/>
-      <c r="I24" s="11"/>
-      <c r="J24" s="11"/>
-      <c r="K24" s="13"/>
-      <c r="L24" s="13"/>
+      <c r="I24" t="n">
+        <v>0.017373</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0.0231225</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.5986633</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0.5707028</v>
+      </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="3"/>
@@ -1189,10 +1269,34 @@
       <c r="F25" s="7"/>
       <c r="G25" s="9"/>
       <c r="H25" s="9"/>
-      <c r="I25" s="11"/>
-      <c r="J25" s="11"/>
-      <c r="K25" s="13"/>
-      <c r="L25" s="13"/>
+      <c r="I25" t="n">
+        <v>0.0106078</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.0140251</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.547783</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0.5299607</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="K26" t="n">
+        <v>0.5881297</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0.6709372</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="K27" t="n">
+        <v>0.6121012</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0.6250793</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/data_output/SequentialExecutionTimes.xlsx
+++ b/src/main/resources/data_output/SequentialExecutionTimes.xlsx
@@ -480,7 +480,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L27"/>
+  <dimension ref="A1:L28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="E37" sqref="E37"/>
@@ -1119,8 +1119,12 @@
       </c>
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
+      <c r="G19" t="n">
+        <v>0.1154601</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.1431686</v>
+      </c>
       <c r="I19" t="n">
         <v>0.0010375</v>
       </c>
@@ -1145,8 +1149,12 @@
       </c>
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
+      <c r="G20" t="n">
+        <v>0.1081391</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.1331268</v>
+      </c>
       <c r="I20" t="n">
         <v>0.001406</v>
       </c>
@@ -1171,8 +1179,12 @@
       </c>
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
+      <c r="G21" t="n">
+        <v>0.0997361</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.1361017</v>
+      </c>
       <c r="I21" t="n">
         <v>0.0012484</v>
       </c>
@@ -1283,6 +1295,12 @@
       </c>
     </row>
     <row r="26">
+      <c r="I26" t="n">
+        <v>0.0231459</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.0147596</v>
+      </c>
       <c r="K26" t="n">
         <v>0.5881297</v>
       </c>
@@ -1296,6 +1314,14 @@
       </c>
       <c r="L27" t="n">
         <v>0.6250793</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="K28" t="n">
+        <v>0.6117588</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0.5543064</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/data_output/SequentialExecutionTimes.xlsx
+++ b/src/main/resources/data_output/SequentialExecutionTimes.xlsx
@@ -1309,6 +1309,12 @@
       </c>
     </row>
     <row r="27">
+      <c r="I27" t="n">
+        <v>0.0195821</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0.0313632</v>
+      </c>
       <c r="K27" t="n">
         <v>0.6121012</v>
       </c>
@@ -1317,6 +1323,12 @@
       </c>
     </row>
     <row r="28">
+      <c r="I28" t="n">
+        <v>0.0370894</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.0146784</v>
+      </c>
       <c r="K28" t="n">
         <v>0.6117588</v>
       </c>

--- a/src/main/resources/data_output/SequentialExecutionTimes.xlsx
+++ b/src/main/resources/data_output/SequentialExecutionTimes.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anul1 IS1.1 Semestrul2\MEvPerf\SearchAlgorithms\src\main\resources\data_output\"/>
     </mc:Choice>
@@ -62,6 +62,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -6623,7 +6624,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="M27" sqref="M27"/>
@@ -6631,18 +6632,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.77734375" customWidth="1"/>
-    <col min="2" max="2" width="17.44140625" customWidth="1"/>
-    <col min="3" max="3" width="16.21875" customWidth="1"/>
-    <col min="4" max="4" width="16.44140625" customWidth="1"/>
-    <col min="5" max="5" width="18.5546875" customWidth="1"/>
-    <col min="6" max="6" width="17.77734375" customWidth="1"/>
-    <col min="7" max="7" width="16.21875" customWidth="1"/>
-    <col min="8" max="8" width="16.44140625" customWidth="1"/>
-    <col min="9" max="9" width="15.77734375" customWidth="1"/>
-    <col min="10" max="10" width="16.6640625" customWidth="1"/>
-    <col min="11" max="11" width="16.33203125" customWidth="1"/>
-    <col min="12" max="12" width="16.109375" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="17.77734375"/>
+    <col min="2" max="2" customWidth="true" width="17.44140625"/>
+    <col min="3" max="3" customWidth="true" width="16.21875"/>
+    <col min="4" max="4" customWidth="true" width="16.44140625"/>
+    <col min="5" max="5" customWidth="true" width="18.5546875"/>
+    <col min="6" max="6" customWidth="true" width="17.77734375"/>
+    <col min="7" max="7" customWidth="true" width="16.21875"/>
+    <col min="8" max="8" customWidth="true" width="16.44140625"/>
+    <col min="9" max="9" customWidth="true" width="15.77734375"/>
+    <col min="10" max="10" customWidth="true" width="16.6640625"/>
+    <col min="11" max="11" customWidth="true" width="16.33203125"/>
+    <col min="12" max="12" customWidth="true" width="16.109375"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -7061,6 +7062,14 @@
       </c>
       <c r="L11" s="8">
         <v>0.5990143</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="K12" t="n">
+        <v>0.6609286</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0.5932979</v>
       </c>
     </row>
   </sheetData>
